--- a/medicine/Psychotrope/Brasserie_Het_Sas/Brasserie_Het_Sas.xlsx
+++ b/medicine/Psychotrope/Brasserie_Het_Sas/Brasserie_Het_Sas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Het Sas (en néerlandais : Brouwerij Het Sas ou Brouwerij Leroy) est une brasserie familiale belge située à Boezinge dans la commune  d'Ypres en province de Flandre-Occidentale. Elle brasse principalement les bières Sas Pils et Stout Leroy.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Leroy brasse depuis le XIXe siècle mais les archives ont disparu à cause des destructions liées à la Première Guerre mondiale.
-La brasserie a été initialement détenue par la famille Clarisse. Elle a changé son nom en Brasserie Leroy quand Adolf Leroy, fils d'un brasseur de Zuidschote, a épousé la fille de la famille Clarisse. Ensuite, Sylvère Leroy (1885-1961) et son épouse Rachel Sys (1881-1954) ont acheté en 1924 une ferme en ruine dans le village de Boezinge qu'ils ont restauré et créé une brasserie qu'ils appellent Het Sas (signifiant L'écluse en patois local). Pendant la Seconde Guerre mondiale, Karel Leroy poursuit l'activité brassicole. En 1962, la famille Leroy reçoit en héritage la brasserie Van Eecke de Watou. La brasserie Van Eecke garde son nom et les deux brasseries continuent d'exister[1] tout en collaborant étroitement : les activités d’embouteillage et d’enfûtage de la brasserie Van Eecke sont réalisées à la brasserie Het Sas.
+La brasserie a été initialement détenue par la famille Clarisse. Elle a changé son nom en Brasserie Leroy quand Adolf Leroy, fils d'un brasseur de Zuidschote, a épousé la fille de la famille Clarisse. Ensuite, Sylvère Leroy (1885-1961) et son épouse Rachel Sys (1881-1954) ont acheté en 1924 une ferme en ruine dans le village de Boezinge qu'ils ont restauré et créé une brasserie qu'ils appellent Het Sas (signifiant L'écluse en patois local). Pendant la Seconde Guerre mondiale, Karel Leroy poursuit l'activité brassicole. En 1962, la famille Leroy reçoit en héritage la brasserie Van Eecke de Watou. La brasserie Van Eecke garde son nom et les deux brasseries continuent d'exister tout en collaborant étroitement : les activités d’embouteillage et d’enfûtage de la brasserie Van Eecke sont réalisées à la brasserie Het Sas.
 Actuellement, la brasserie est dirigée par Hendrik et Philip Leroy, représentant la septième génération de brasseurs.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les bières produites :
 Sas Pils, une pils titrant 5 % en volume d'alcool
